--- a/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
+++ b/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/TestePivot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFF4135-48EE-4E68-9786-6569592D10F6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56BB4DC-BA73-46D6-B928-B7C7CED21461}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METAIS FORMATADA " sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'METAIS FORMATADA '!$A$1:$X$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'METAIS FORMATADA '!$A$1:$X$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -516,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -984,13 +984,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1081,12 +1107,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,9 +1179,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,59 +1188,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1171,7 +1224,22 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1321,8 +1389,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1343,7 +1410,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1406,7 +1474,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1458,7 +1526,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1521,7 +1590,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1542,8 +1611,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1605,8 +1673,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1627,7 +1694,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1669,7 +1737,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1711,7 +1779,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1732,7 +1800,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1774,8 +1843,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1796,7 +1864,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1867,6 +1935,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2132,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="50" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2157,90 +2229,90 @@
   <sheetData>
     <row r="1" spans="1:24" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="34" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="35"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="55"/>
     </row>
     <row r="4" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="28" t="s">
         <v>92</v>
       </c>
@@ -2295,96 +2367,96 @@
       <c r="U4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="59" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="51">
         <v>45121.380555555559</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="58"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="59"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="58"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="59"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
@@ -3338,203 +3410,206 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="65"/>
+    </row>
+    <row r="22" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>1.01E-2</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="11">
+      <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="11">
         <v>1.44E-2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N22" s="11">
         <v>7.6E-3</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>0.22</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P22" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="Q21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="11">
+      <c r="Q22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="11">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U22" s="13">
         <v>2.81E-2</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V22" s="10">
         <v>1.8</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="68"/>
+    </row>
+    <row r="24" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="B25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="4"/>
+      <c r="B26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
     </row>
     <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="28" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3551,10 +3626,15 @@
       <c r="V28" s="5"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="29" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3571,10 +3651,61 @@
       <c r="V29" s="5"/>
       <c r="W29" s="4"/>
     </row>
+    <row r="30" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:V24"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:V26"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="B1:V1"/>
@@ -3589,190 +3720,179 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="W4:W6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:XFD1 X2:XFD3 V4:XFD6 Y7:XFD21 C22:XFD1048576">
-    <cfRule type="containsText" dxfId="42" priority="60" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="C1:XFD1 X2:XFD3 V4:XFD6 Y7:XFD23 C24:XFD1048576">
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D20">
-    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="D7:D21">
+    <cfRule type="containsText" dxfId="44" priority="56" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:K21">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;">
-      <formula>NOT(ISERROR(SEARCH("&lt;",D21)))</formula>
+  <conditionalFormatting sqref="D22:K23">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="&lt;">
+      <formula>NOT(ISERROR(SEARCH("&lt;",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:U4">
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18 T8 G8:G9 R11:R20 T11:T20 G12 G17 G19:G20">
-    <cfRule type="beginsWith" dxfId="38" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
+  <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18 T8 G8:G9 R11:R21 T11:T21 G12 G17 G19:G21">
+    <cfRule type="beginsWith" dxfId="41" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(E8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18">
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="greaterThanOrEqual">
+    <cfRule type="beginsWith" dxfId="40" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(E10,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="39" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(E10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="38" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(E10,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="52" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="53" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="52" operator="greaterThanOrEqual">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9 G12 G17 G19:G21 H8:J8 H10:J21">
+    <cfRule type="beginsWith" dxfId="35" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(G8,1)="&lt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:J8 G8:G9 H10:J21 G12 G17 G19:G21">
+    <cfRule type="beginsWith" dxfId="34" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(G8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="33" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(G8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="75" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="35" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(E10,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(E10,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(E10,1)="N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9 G12 G17 G19:G20 H8:J8 H10:J20">
-    <cfRule type="beginsWith" dxfId="32" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(G8,1)="&lt;"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:J8 G8:G9 H10:J20 G12 G17 G19:G20">
     <cfRule type="cellIs" dxfId="31" priority="76" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(G8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(G8,1)="N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="75" operator="greaterThanOrEqual">
-      <formula>#REF!</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:J8 H10:J20">
-    <cfRule type="beginsWith" dxfId="27" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
+  <conditionalFormatting sqref="H8:J8 H10:J21">
+    <cfRule type="beginsWith" dxfId="30" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(H8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:K20">
-    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="H7:K21">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L9 L11:L21">
-    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="L7:L9 L11:L23">
+    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:N8 M10:N20">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="M7:N8 M10:N21">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:N21">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="M7:N23">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:N8 M10:N20">
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="M8:N8 M10:N21">
+    <cfRule type="beginsWith" dxfId="25" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(M8,1)="A"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(M8,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="23" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(M8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="22" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(M8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThanOrEqual">
       <formula>$D8</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
-      <formula>LEFT(M8,1)="A"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(M8,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(M8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(M8,1)="N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q8 O10:Q11 O13:Q13 P14:Q14 O15:Q20">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="O7:Q8 O10:Q11 O13:Q13 P14:Q14 O15:Q21">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q13 P14:Q14 O15:Q21">
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="O7:Q13 P14:Q14 O15:Q23">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:Q8 O10:Q11 P12:Q12 O13:Q13 P14:Q14 O15:Q20">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="O8:Q8 O10:Q11 P12:Q12 O13:Q13 P14:Q14 O15:Q21">
+    <cfRule type="beginsWith" dxfId="17" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(O8,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(O8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(O8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThanOrEqual">
+      <formula>$D8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(O8,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(O8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(O8,1)="N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="greaterThanOrEqual">
-      <formula>$D8</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:R8 O10:Q11 O13:Q13 P14:Q14 O15:Q20 P12:Q12">
-    <cfRule type="beginsWith" dxfId="9" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
+  <conditionalFormatting sqref="O8:R8 O10:Q11 O13:Q13 P14:Q14 O15:Q21 P12:Q12">
+    <cfRule type="beginsWith" dxfId="12" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(O8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R9 T7:T9 E7:F20 R11:R21 T11:T21 S7:S21">
-    <cfRule type="containsText" dxfId="7" priority="59" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="R7:R9 T7:T9 E7:F21 R11:R23 T11:T23 S7:S23">
+    <cfRule type="containsText" dxfId="10" priority="59" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8 T8 R11:R20 T11:T20">
-    <cfRule type="beginsWith" dxfId="6" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
+  <conditionalFormatting sqref="R8 T8 R11:R21 T11:T21">
+    <cfRule type="beginsWith" dxfId="9" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(R8,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="8" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
       <formula>LEFT(R8,1)="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="7" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
       <formula>LEFT(R8,1)="N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="70" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="71" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="71" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:T8 E7:G20 R11:R20 T11:T20 R7:R8">
-    <cfRule type="containsText" dxfId="1" priority="58" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="T7:T8 E7:G21 R11:R21 T11:T21 R7:R8">
+    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:U21">
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="&lt;">
+  <conditionalFormatting sqref="U7:U23">
+    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",U7)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
+++ b/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/TestePivot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56BB4DC-BA73-46D6-B928-B7C7CED21461}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D64AF1-9B08-4922-9FF1-6A9C7CC375F5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METAIS FORMATADA " sheetId="1" r:id="rId1"/>
@@ -1107,15 +1107,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,9 +1203,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,60 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,22 +1224,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1389,7 +1374,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1410,8 +1395,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1432,7 +1416,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1474,7 +1459,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1526,8 +1511,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1590,7 +1574,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1673,7 +1658,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1694,8 +1679,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1716,7 +1700,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -1737,7 +1722,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1779,7 +1764,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color rgb="FFD3D3D3"/>
       </font>
       <border>
         <left style="thin">
@@ -1800,8 +1785,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <left style="thin">
@@ -1864,7 +1848,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3D3D3"/>
+        <b/>
+        <color rgb="FFFF0000"/>
       </font>
       <border>
         <left style="thin">
@@ -2206,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2215,13 +2200,13 @@
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="15" width="19.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="19.7265625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="19.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="20" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="19.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="19.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="23" width="19.54296875" style="1" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.1796875" style="1"/>
@@ -2229,90 +2214,90 @@
   <sheetData>
     <row r="1" spans="1:24" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="52" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="53"/>
+      <c r="W2" s="42"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="55"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="28" t="s">
         <v>92</v>
       </c>
@@ -2367,96 +2352,96 @@
       <c r="U4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="V4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="W4" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="54" t="s">
         <v>72</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="54" t="s">
         <v>69</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="52">
         <v>45121.380555555559</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="U5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="44"/>
-      <c r="W5" s="59"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="59"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
@@ -3411,28 +3396,28 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="65"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
@@ -3503,28 +3488,28 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="68"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
     </row>
     <row r="24" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
@@ -3545,53 +3530,53 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
     </row>
     <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3693,17 +3678,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B26:V26"/>
     <mergeCell ref="R5:R6"/>
@@ -3720,179 +3694,190 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:XFD1 X2:XFD3 V4:XFD6 Y7:XFD23 C24:XFD1048576">
-    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="42" priority="60" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D21">
-    <cfRule type="containsText" dxfId="44" priority="56" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="41" priority="56" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:K23">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:U4">
-    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18 T8 G8:G9 R11:R21 T11:T21 G12 G17 G19:G21">
-    <cfRule type="beginsWith" dxfId="41" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="38" priority="57" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(E8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:G11 E13:G16 E18:G18">
-    <cfRule type="beginsWith" dxfId="40" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(E10,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(E10,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(E10,1)="N"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="52" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="53" operator="greaterThanOrEqual">
+    <cfRule type="beginsWith" dxfId="36" priority="50" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(E10,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="35" priority="49" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(E10,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="53" operator="greaterThanOrEqual">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="33" priority="51" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(E10,1)="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9 G12 G17 G19:G21 H8:J8 H10:J21">
-    <cfRule type="beginsWith" dxfId="35" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="32" priority="72" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(G8,1)="&lt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 G8:G9 H10:J21 G12 G17 G19:G21">
-    <cfRule type="beginsWith" dxfId="34" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(G8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(G8,1)="N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="75" operator="greaterThanOrEqual">
-      <formula>#REF!</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="76" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="75" operator="greaterThanOrEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="29" priority="74" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(G8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="28" priority="73" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(G8,1)="n"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:J8 H10:J21">
-    <cfRule type="beginsWith" dxfId="30" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="27" priority="39" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(H8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:K21">
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L9 L11:L23">
-    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:N8 M10:N21">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:N23">
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N8 M10:N21">
-    <cfRule type="beginsWith" dxfId="25" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
-      <formula>LEFT(M8,1)="A"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
-      <formula>LEFT(M8,1)="&lt;"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
-      <formula>LEFT(M8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(M8,1)="N"</formula>
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThanOrEqual">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThanOrEqual">
       <formula>$D8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="greaterThanOrEqual">
-      <formula>0</formula>
+    <cfRule type="beginsWith" dxfId="20" priority="32" stopIfTrue="1" operator="beginsWith" text="n">
+      <formula>LEFT(M8,1)="n"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="19" priority="33" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(M8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="31" stopIfTrue="1" operator="beginsWith" text="&lt;">
+      <formula>LEFT(M8,1)="&lt;"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="17" priority="30" stopIfTrue="1" operator="beginsWith" text="A">
+      <formula>LEFT(M8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q8 O10:Q11 O13:Q13 P14:Q14 O15:Q21">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q13 P14:Q14 O15:Q23">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:Q8 O10:Q11 P12:Q12 O13:Q13 P14:Q14 O15:Q21">
-    <cfRule type="beginsWith" dxfId="17" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="22" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(O8,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="greaterThanOrEqual">
+      <formula>$D8</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="11" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
+      <formula>LEFT(O8,1)="N"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="23" stopIfTrue="1" operator="beginsWith" text="n">
       <formula>LEFT(O8,1)="n"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="24" stopIfTrue="1" operator="beginsWith" text="N">
-      <formula>LEFT(O8,1)="N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThanOrEqual">
-      <formula>$D8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThanOrEqual">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:R8 O10:Q11 O13:Q13 P14:Q14 O15:Q21 P12:Q12">
-    <cfRule type="beginsWith" dxfId="12" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="9" priority="21" stopIfTrue="1" operator="beginsWith" text="A">
       <formula>LEFT(O8,1)="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7:R9 T7:T9 E7:F21 R11:R23 T11:T23 S7:S23">
-    <cfRule type="containsText" dxfId="10" priority="59" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="7" priority="59" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8 T8 R11:R21 T11:T21">
-    <cfRule type="beginsWith" dxfId="9" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
+    <cfRule type="beginsWith" dxfId="6" priority="67" stopIfTrue="1" operator="beginsWith" text="&lt;">
       <formula>LEFT(R8,1)="&lt;"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
+    <cfRule type="beginsWith" dxfId="5" priority="68" stopIfTrue="1" operator="beginsWith" text="n">
       <formula>LEFT(R8,1)="n"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
+    <cfRule type="beginsWith" dxfId="4" priority="69" stopIfTrue="1" operator="beginsWith" text="N">
       <formula>LEFT(R8,1)="N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="70" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="71" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="71" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T8 E7:G21 R11:R21 T11:T21 R7:R8">
-    <cfRule type="containsText" dxfId="4" priority="58" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="1" priority="58" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7:U23">
-    <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",U7)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
+++ b/TestePivot/Modelo_Tabela_Servmar_Resultados_Analíticos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/TestePivot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D64AF1-9B08-4922-9FF1-6A9C7CC375F5}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_DC8EA765ED6E4C94375638B15203040504C3A8C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43832BD9-CF12-44CC-AA47-F3AE4228E680}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METAIS FORMATADA " sheetId="1" r:id="rId1"/>
@@ -1134,6 +1134,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,9 +1203,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,65 +1212,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2192,7 +2192,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="C2" sqref="C1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2200,13 +2200,13 @@
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="19.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="20" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="15" width="19.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="19.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="7" width="19.7265625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="15" width="19.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="1" customWidth="1"/>
+    <col min="17" max="19" width="19.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.7265625" style="1" customWidth="1"/>
     <col min="22" max="23" width="19.54296875" style="1" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.1796875" style="1"/>
@@ -2214,90 +2214,90 @@
   <sheetData>
     <row r="1" spans="1:24" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="41" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="42"/>
+      <c r="W2" s="61"/>
     </row>
     <row r="3" spans="1:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="44"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="28" t="s">
         <v>92</v>
       </c>
@@ -2352,96 +2352,96 @@
       <c r="U4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="67" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="54" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="68">
         <v>45121.380555555559</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="51"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="67"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="51"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
@@ -3530,53 +3530,53 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
     </row>
     <row r="27" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3678,6 +3678,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="B25:Q25"/>
     <mergeCell ref="B26:V26"/>
     <mergeCell ref="R5:R6"/>
@@ -3694,17 +3705,6 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:XFD1 X2:XFD3 V4:XFD6 Y7:XFD23 C24:XFD1048576">
     <cfRule type="containsText" dxfId="42" priority="60" operator="containsText" text="&lt;">
